--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H2">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J2">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.582021999999999</v>
+        <v>15.025588</v>
       </c>
       <c r="N2">
-        <v>22.746066</v>
+        <v>45.076764</v>
       </c>
       <c r="O2">
-        <v>0.6904803268470485</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P2">
-        <v>0.6904803268470484</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q2">
-        <v>6.023433756932667</v>
+        <v>14.56340091312</v>
       </c>
       <c r="R2">
-        <v>54.210903812394</v>
+        <v>131.07060821808</v>
       </c>
       <c r="S2">
-        <v>0.07953894380581733</v>
+        <v>0.111557679544124</v>
       </c>
       <c r="T2">
-        <v>0.07953894380581732</v>
+        <v>0.111557679544124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H3">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J3">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.01603921708027116</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P3">
-        <v>0.01603921708027115</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q3">
-        <v>0.1399187751477778</v>
+        <v>0.1707057796</v>
       </c>
       <c r="R3">
-        <v>1.25926897633</v>
+        <v>1.5363520164</v>
       </c>
       <c r="S3">
-        <v>0.001847615835577005</v>
+        <v>0.001307630049502418</v>
       </c>
       <c r="T3">
-        <v>0.001847615835577005</v>
+        <v>0.001307630049502418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H4">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J4">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.025778</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N4">
-        <v>9.077334</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O4">
-        <v>0.2755518491514017</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P4">
-        <v>0.2755518491514016</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q4">
-        <v>2.403787979800667</v>
+        <v>0.02766340192</v>
       </c>
       <c r="R4">
-        <v>21.634091818206</v>
+        <v>0.2489706172800001</v>
       </c>
       <c r="S4">
-        <v>0.0317418211541563</v>
+        <v>0.000211905511968119</v>
       </c>
       <c r="T4">
-        <v>0.03174182115415628</v>
+        <v>0.000211905511968119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H5">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J5">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.116695</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N5">
-        <v>0.350085</v>
+        <v>19.037629</v>
       </c>
       <c r="O5">
-        <v>0.01062719176248979</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P5">
-        <v>0.01062719176248978</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q5">
-        <v>0.09270674791833335</v>
+        <v>6.150677177320001</v>
       </c>
       <c r="R5">
-        <v>0.8343607312650001</v>
+        <v>55.35609459588002</v>
       </c>
       <c r="S5">
-        <v>0.001224184926846672</v>
+        <v>0.0471150439118017</v>
       </c>
       <c r="T5">
-        <v>0.001224184926846671</v>
+        <v>0.0471150439118017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7944363333333334</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H6">
-        <v>2.383309</v>
+        <v>2.90772</v>
       </c>
       <c r="I6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J6">
-        <v>0.1151936423286921</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08017533333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N6">
-        <v>0.240526</v>
+        <v>0.458717</v>
       </c>
       <c r="O6">
-        <v>0.007301415158788918</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P6">
-        <v>0.007301415158788916</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q6">
-        <v>0.06369419783711112</v>
+        <v>0.14820228836</v>
       </c>
       <c r="R6">
-        <v>0.5732477805340001</v>
+        <v>1.33382059524</v>
       </c>
       <c r="S6">
-        <v>0.0008410766062948213</v>
+        <v>0.001135250172071845</v>
       </c>
       <c r="T6">
-        <v>0.0008410766062948211</v>
+        <v>0.001135250172071845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.665910666666667</v>
+        <v>0.9692400000000001</v>
       </c>
       <c r="H7">
-        <v>13.997732</v>
+        <v>2.90772</v>
       </c>
       <c r="I7">
-        <v>0.6765592432290097</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="J7">
-        <v>0.6765592432290098</v>
+        <v>0.1619623347837637</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.582021999999999</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N7">
-        <v>22.746066</v>
+        <v>0.256512</v>
       </c>
       <c r="O7">
-        <v>0.6904803268470485</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P7">
-        <v>0.6904803268470484</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q7">
-        <v>35.37703732470133</v>
+        <v>0.08287389696000001</v>
       </c>
       <c r="R7">
-        <v>318.393335922312</v>
+        <v>0.7458650726400001</v>
       </c>
       <c r="S7">
-        <v>0.4671508473961584</v>
+        <v>0.0006348255942955963</v>
       </c>
       <c r="T7">
-        <v>0.4671508473961584</v>
+        <v>0.0006348255942955961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
         <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J8">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1761233333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N8">
-        <v>0.52837</v>
+        <v>45.076764</v>
       </c>
       <c r="O8">
-        <v>0.01603921708027116</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P8">
-        <v>0.01603921708027115</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q8">
-        <v>0.8217757396488889</v>
+        <v>70.10805132213865</v>
       </c>
       <c r="R8">
-        <v>7.395981656840001</v>
+        <v>630.9724618992479</v>
       </c>
       <c r="S8">
-        <v>0.01085148056981406</v>
+        <v>0.5370374385430954</v>
       </c>
       <c r="T8">
-        <v>0.01085148056981406</v>
+        <v>0.5370374385430954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
         <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J9">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.025778</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N9">
-        <v>9.077334</v>
+        <v>0.52837</v>
       </c>
       <c r="O9">
-        <v>0.2755518491514017</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P9">
-        <v>0.2755518491514016</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q9">
-        <v>14.11800984516534</v>
+        <v>0.8217757396488887</v>
       </c>
       <c r="R9">
-        <v>127.062088606488</v>
+        <v>7.39598165684</v>
       </c>
       <c r="S9">
-        <v>0.1864271505322266</v>
+        <v>0.006294916631615689</v>
       </c>
       <c r="T9">
-        <v>0.1864271505322266</v>
+        <v>0.006294916631615689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H10">
         <v>13.997732</v>
       </c>
       <c r="I10">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J10">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116695</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N10">
-        <v>0.350085</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O10">
-        <v>0.01062719176248979</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P10">
-        <v>0.01062719176248978</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q10">
-        <v>0.5444884452466667</v>
+        <v>0.1331713116408889</v>
       </c>
       <c r="R10">
-        <v>4.900396007220001</v>
+        <v>1.198541804768</v>
       </c>
       <c r="S10">
-        <v>0.007189924816479657</v>
+        <v>0.001020110796724761</v>
       </c>
       <c r="T10">
-        <v>0.007189924816479656</v>
+        <v>0.001020110796724761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.665910666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H11">
         <v>13.997732</v>
       </c>
       <c r="I11">
-        <v>0.6765592432290097</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J11">
-        <v>0.6765592432290098</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08017533333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N11">
-        <v>0.240526</v>
+        <v>19.037629</v>
       </c>
       <c r="O11">
-        <v>0.007301415158788918</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P11">
-        <v>0.007301415158788916</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q11">
-        <v>0.3740909430035556</v>
+        <v>29.60929207304756</v>
       </c>
       <c r="R11">
-        <v>3.366818487032</v>
+        <v>266.483628657428</v>
       </c>
       <c r="S11">
-        <v>0.004939839914331051</v>
+        <v>0.226811301585308</v>
       </c>
       <c r="T11">
-        <v>0.00493983991433105</v>
+        <v>0.226811301585308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.001148666666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H12">
-        <v>0.003446</v>
+        <v>13.997732</v>
       </c>
       <c r="I12">
-        <v>0.0001665572074224001</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J12">
-        <v>0.0001665572074224001</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.582021999999999</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N12">
-        <v>22.746066</v>
+        <v>0.458717</v>
       </c>
       <c r="O12">
-        <v>0.6904803268470485</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P12">
-        <v>0.6904803268470484</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q12">
-        <v>0.008709215937333334</v>
+        <v>0.7134441810937777</v>
       </c>
       <c r="R12">
-        <v>0.078382943436</v>
+        <v>6.420997629843999</v>
       </c>
       <c r="S12">
-        <v>0.0001150044750197505</v>
+        <v>0.00546508180348024</v>
       </c>
       <c r="T12">
-        <v>0.0001150044750197505</v>
+        <v>0.00546508180348024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.001148666666666667</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H13">
-        <v>0.003446</v>
+        <v>13.997732</v>
       </c>
       <c r="I13">
-        <v>0.0001665572074224001</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="J13">
-        <v>0.0001665572074224001</v>
+        <v>0.7796848927673232</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1761233333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N13">
-        <v>0.52837</v>
+        <v>0.256512</v>
       </c>
       <c r="O13">
-        <v>0.01603921708027116</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P13">
-        <v>0.01603921708027115</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q13">
-        <v>0.0002023070022222222</v>
+        <v>0.3989540256426667</v>
       </c>
       <c r="R13">
-        <v>0.00182076302</v>
+        <v>3.590586230784</v>
       </c>
       <c r="S13">
-        <v>2.671447206131625E-06</v>
+        <v>0.003056043407099199</v>
       </c>
       <c r="T13">
-        <v>2.671447206131625E-06</v>
+        <v>0.003056043407099199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H14">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J14">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.025778</v>
+        <v>15.025588</v>
       </c>
       <c r="N14">
-        <v>9.077334</v>
+        <v>45.076764</v>
       </c>
       <c r="O14">
-        <v>0.2755518491514017</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P14">
-        <v>0.2755518491514016</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q14">
-        <v>0.003475610329333334</v>
+        <v>0.005729757557333333</v>
       </c>
       <c r="R14">
-        <v>0.031280492964</v>
+        <v>0.051567818016</v>
       </c>
       <c r="S14">
-        <v>4.589514649473592E-05</v>
+        <v>4.389074099241944E-05</v>
       </c>
       <c r="T14">
-        <v>4.589514649473591E-05</v>
+        <v>4.389074099241944E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H15">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J15">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.116695</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N15">
-        <v>0.350085</v>
+        <v>0.52837</v>
       </c>
       <c r="O15">
-        <v>0.01062719176248979</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P15">
-        <v>0.01062719176248978</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q15">
-        <v>0.0001340436566666667</v>
+        <v>6.716169777777778E-05</v>
       </c>
       <c r="R15">
-        <v>0.00120639291</v>
+        <v>0.00060445528</v>
       </c>
       <c r="S15">
-        <v>1.770035382702633E-06</v>
+        <v>5.144679599929724E-07</v>
       </c>
       <c r="T15">
-        <v>1.770035382702633E-06</v>
+        <v>5.144679599929724E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,78 +1411,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.001148666666666667</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H16">
-        <v>0.003446</v>
+        <v>0.001144</v>
       </c>
       <c r="I16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001665572074224001</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08017533333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N16">
-        <v>0.240526</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O16">
-        <v>0.007301415158788918</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P16">
-        <v>0.007301415158788916</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q16">
-        <v>9.20947328888889E-05</v>
+        <v>1.088376177777778E-05</v>
       </c>
       <c r="R16">
-        <v>0.000828852596</v>
+        <v>9.795385600000001E-05</v>
       </c>
       <c r="S16">
-        <v>1.216103319079462E-06</v>
+        <v>8.337113122705353E-08</v>
       </c>
       <c r="T16">
-        <v>1.216103319079462E-06</v>
+        <v>8.337113122705353E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.282152</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H17">
-        <v>3.846456</v>
+        <v>0.001144</v>
       </c>
       <c r="I17">
-        <v>0.1859126435963829</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J17">
-        <v>0.1859126435963829</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.582021999999999</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N17">
-        <v>22.746066</v>
+        <v>19.037629</v>
       </c>
       <c r="O17">
-        <v>0.6904803268470485</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P17">
-        <v>0.6904803268470484</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q17">
-        <v>9.721304671343999</v>
+        <v>0.002419894175111111</v>
       </c>
       <c r="R17">
-        <v>87.49174204209599</v>
+        <v>0.021779047576</v>
       </c>
       <c r="S17">
-        <v>0.1283690229154293</v>
+        <v>1.853672645065589E-05</v>
       </c>
       <c r="T17">
-        <v>0.1283690229154293</v>
+        <v>1.853672645065589E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.282152</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H18">
-        <v>3.846456</v>
+        <v>0.001144</v>
       </c>
       <c r="I18">
-        <v>0.1859126435963829</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J18">
-        <v>0.1859126435963829</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1761233333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N18">
-        <v>0.52837</v>
+        <v>0.458717</v>
       </c>
       <c r="O18">
-        <v>0.01603921708027116</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P18">
-        <v>0.01603921708027115</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q18">
-        <v>0.22581688408</v>
+        <v>5.830802755555556E-05</v>
       </c>
       <c r="R18">
-        <v>2.03235195672</v>
+        <v>0.000524772248</v>
       </c>
       <c r="S18">
-        <v>0.002981893248609468</v>
+        <v>4.466476128548107E-07</v>
       </c>
       <c r="T18">
-        <v>0.002981893248609468</v>
+        <v>4.466476128548107E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.282152</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H19">
-        <v>3.846456</v>
+        <v>0.001144</v>
       </c>
       <c r="I19">
-        <v>0.1859126435963829</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="J19">
-        <v>0.1859126435963829</v>
+        <v>6.372171701285737E-05</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.025778</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N19">
-        <v>9.077334</v>
+        <v>0.256512</v>
       </c>
       <c r="O19">
-        <v>0.2755518491514017</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P19">
-        <v>0.2755518491514016</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q19">
-        <v>3.879507314256</v>
+        <v>3.260552533333334E-05</v>
       </c>
       <c r="R19">
-        <v>34.915565828304</v>
+        <v>0.000293449728</v>
       </c>
       <c r="S19">
-        <v>0.05122857272360881</v>
+        <v>2.497628657072078E-07</v>
       </c>
       <c r="T19">
-        <v>0.0512285727236088</v>
+        <v>2.497628657072077E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H20">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J20">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.116695</v>
+        <v>15.025588</v>
       </c>
       <c r="N20">
-        <v>0.350085</v>
+        <v>45.076764</v>
       </c>
       <c r="O20">
-        <v>0.01062719176248979</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P20">
-        <v>0.01062719176248978</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q20">
-        <v>0.14962072764</v>
+        <v>5.111474645250666</v>
       </c>
       <c r="R20">
-        <v>1.34658654876</v>
+        <v>46.003271807256</v>
       </c>
       <c r="S20">
-        <v>0.00197572931457018</v>
+        <v>0.03915460776466575</v>
       </c>
       <c r="T20">
-        <v>0.00197572931457018</v>
+        <v>0.03915460776466575</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.282152</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H21">
-        <v>3.846456</v>
+        <v>1.020554</v>
       </c>
       <c r="I21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J21">
-        <v>0.1859126435963829</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.08017533333333333</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N21">
-        <v>0.240526</v>
+        <v>0.52837</v>
       </c>
       <c r="O21">
-        <v>0.007301415158788918</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P21">
-        <v>0.007301415158788916</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q21">
-        <v>0.102796963984</v>
+        <v>0.05991445744222221</v>
       </c>
       <c r="R21">
-        <v>0.9251726758559999</v>
+        <v>0.53923011698</v>
       </c>
       <c r="S21">
-        <v>0.001357425394165151</v>
+        <v>0.0004589530895477866</v>
       </c>
       <c r="T21">
-        <v>0.001357425394165151</v>
+        <v>0.0004589530895477866</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3401846666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.020554</v>
+      </c>
+      <c r="I22">
+        <v>0.05684567586043673</v>
+      </c>
+      <c r="J22">
+        <v>0.05684567586043673</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G22">
-        <v>0.0003876666666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.001163</v>
-      </c>
-      <c r="I22">
-        <v>5.621184916780363E-05</v>
-      </c>
-      <c r="J22">
-        <v>5.621184916780364E-05</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
-        <v>7.582021999999999</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N22">
-        <v>22.746066</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O22">
-        <v>0.6904803268470485</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P22">
-        <v>0.6904803268470484</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q22">
-        <v>0.002939297195333333</v>
+        <v>0.009709323966222223</v>
       </c>
       <c r="R22">
-        <v>0.026453674758</v>
+        <v>0.087383915696</v>
       </c>
       <c r="S22">
-        <v>3.881317598606204E-05</v>
+        <v>7.437477400200557E-05</v>
       </c>
       <c r="T22">
-        <v>3.881317598606204E-05</v>
+        <v>7.437477400200557E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0003876666666666666</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H23">
-        <v>0.001163</v>
+        <v>1.020554</v>
       </c>
       <c r="I23">
-        <v>5.621184916780363E-05</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J23">
-        <v>5.621184916780364E-05</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1761233333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N23">
-        <v>0.52837</v>
+        <v>19.037629</v>
       </c>
       <c r="O23">
-        <v>0.01603921708027116</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P23">
-        <v>0.01603921708027115</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q23">
-        <v>6.827714555555555E-05</v>
+        <v>2.158769825162889</v>
       </c>
       <c r="R23">
-        <v>0.00061449431</v>
+        <v>19.428928426466</v>
       </c>
       <c r="S23">
-        <v>9.015940512858619E-07</v>
+        <v>0.01653647755779953</v>
       </c>
       <c r="T23">
-        <v>9.015940512858619E-07</v>
+        <v>0.01653647755779953</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0003876666666666666</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H24">
-        <v>0.001163</v>
+        <v>1.020554</v>
       </c>
       <c r="I24">
-        <v>5.621184916780363E-05</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J24">
-        <v>5.621184916780364E-05</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.025778</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N24">
-        <v>9.077334</v>
+        <v>0.458717</v>
       </c>
       <c r="O24">
-        <v>0.2755518491514017</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P24">
-        <v>0.2755518491514016</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q24">
-        <v>0.001172993271333333</v>
+        <v>0.05201616324644444</v>
       </c>
       <c r="R24">
-        <v>0.010556939442</v>
+        <v>0.468145469218</v>
       </c>
       <c r="S24">
-        <v>1.548927898240797E-05</v>
+        <v>0.0003984510558474025</v>
       </c>
       <c r="T24">
-        <v>1.548927898240797E-05</v>
+        <v>0.0003984510558474025</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0003876666666666666</v>
+        <v>0.3401846666666666</v>
       </c>
       <c r="H25">
-        <v>0.001163</v>
+        <v>1.020554</v>
       </c>
       <c r="I25">
-        <v>5.621184916780363E-05</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="J25">
-        <v>5.621184916780364E-05</v>
+        <v>0.05684567586043673</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.116695</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N25">
-        <v>0.350085</v>
+        <v>0.256512</v>
       </c>
       <c r="O25">
-        <v>0.01062719176248979</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P25">
-        <v>0.01062719176248978</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q25">
-        <v>4.523876166666666E-05</v>
+        <v>0.02908714973866667</v>
       </c>
       <c r="R25">
-        <v>0.000407148855</v>
+        <v>0.261784347648</v>
       </c>
       <c r="S25">
-        <v>5.973741004304011E-07</v>
+        <v>0.0002228116185742602</v>
       </c>
       <c r="T25">
-        <v>5.973741004304011E-07</v>
+        <v>0.0002228116185742602</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2037,45 +2037,45 @@
         <v>0.001163</v>
       </c>
       <c r="I26">
-        <v>5.621184916780363E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J26">
-        <v>5.621184916780364E-05</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08017533333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N26">
-        <v>0.240526</v>
+        <v>45.076764</v>
       </c>
       <c r="O26">
-        <v>0.007301415158788918</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P26">
-        <v>0.007301415158788916</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q26">
-        <v>3.108130422222222E-05</v>
+        <v>0.005824919614666666</v>
       </c>
       <c r="R26">
-        <v>0.000279731738</v>
+        <v>0.052424276532</v>
       </c>
       <c r="S26">
-        <v>4.104260476173576E-07</v>
+        <v>4.461969560680402E-05</v>
       </c>
       <c r="T26">
-        <v>4.104260476173576E-07</v>
+        <v>4.461969560680402E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.152494</v>
+        <v>0.0003876666666666666</v>
       </c>
       <c r="H27">
-        <v>0.4574819999999999</v>
+        <v>0.001163</v>
       </c>
       <c r="I27">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J27">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>7.582021999999999</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N27">
-        <v>22.746066</v>
+        <v>0.52837</v>
       </c>
       <c r="O27">
-        <v>0.6904803268470485</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P27">
-        <v>0.6904803268470484</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q27">
-        <v>1.156212862868</v>
+        <v>6.827714555555555E-05</v>
       </c>
       <c r="R27">
-        <v>10.405915765812</v>
+        <v>0.00061449431</v>
       </c>
       <c r="S27">
-        <v>0.01526769507863769</v>
+        <v>5.23012445342506E-07</v>
       </c>
       <c r="T27">
-        <v>0.01526769507863769</v>
+        <v>5.23012445342506E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.152494</v>
+        <v>0.0003876666666666666</v>
       </c>
       <c r="H28">
-        <v>0.4574819999999999</v>
+        <v>0.001163</v>
       </c>
       <c r="I28">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J28">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1761233333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N28">
-        <v>0.52837</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O28">
-        <v>0.01603921708027116</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P28">
-        <v>0.01603921708027115</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q28">
-        <v>0.02685775159333333</v>
+        <v>1.106452355555556E-05</v>
       </c>
       <c r="R28">
-        <v>0.24171976434</v>
+        <v>9.958071200000001E-05</v>
       </c>
       <c r="S28">
-        <v>0.0003546543850132061</v>
+        <v>8.475579162330704E-08</v>
       </c>
       <c r="T28">
-        <v>0.000354654385013206</v>
+        <v>8.475579162330704E-08</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.152494</v>
+        <v>0.0003876666666666666</v>
       </c>
       <c r="H29">
-        <v>0.4574819999999999</v>
+        <v>0.001163</v>
       </c>
       <c r="I29">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J29">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.025778</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N29">
-        <v>9.077334</v>
+        <v>19.037629</v>
       </c>
       <c r="O29">
-        <v>0.2755518491514017</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P29">
-        <v>0.2755518491514016</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q29">
-        <v>0.461412990332</v>
+        <v>0.002460084725222222</v>
       </c>
       <c r="R29">
-        <v>4.152716912988</v>
+        <v>0.022140762527</v>
       </c>
       <c r="S29">
-        <v>0.006092920315932901</v>
+        <v>1.884459166268601E-05</v>
       </c>
       <c r="T29">
-        <v>0.0060929203159329</v>
+        <v>1.884459166268601E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.152494</v>
+        <v>0.0003876666666666666</v>
       </c>
       <c r="H30">
-        <v>0.4574819999999999</v>
+        <v>0.001163</v>
       </c>
       <c r="I30">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J30">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,33 +2297,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.116695</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N30">
-        <v>0.350085</v>
+        <v>0.458717</v>
       </c>
       <c r="O30">
-        <v>0.01062719176248979</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P30">
-        <v>0.01062719176248978</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q30">
-        <v>0.01779528733</v>
+        <v>5.927643011111111E-05</v>
       </c>
       <c r="R30">
-        <v>0.16015758597</v>
+        <v>0.000533487871</v>
       </c>
       <c r="S30">
-        <v>0.0002349852951101468</v>
+        <v>4.540657113200566E-07</v>
       </c>
       <c r="T30">
-        <v>0.0002349852951101468</v>
+        <v>4.540657113200566E-07</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.152494</v>
+        <v>0.0003876666666666666</v>
       </c>
       <c r="H31">
-        <v>0.4574819999999999</v>
+        <v>0.001163</v>
       </c>
       <c r="I31">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="J31">
-        <v>0.02211170178932514</v>
+        <v>6.4780032242966E-05</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.08017533333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N31">
-        <v>0.240526</v>
+        <v>0.256512</v>
       </c>
       <c r="O31">
-        <v>0.007301415158788918</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P31">
-        <v>0.007301415158788916</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q31">
-        <v>0.01222625728133333</v>
+        <v>3.314705066666667E-05</v>
       </c>
       <c r="R31">
-        <v>0.110036315532</v>
+        <v>0.000298323456</v>
       </c>
       <c r="S31">
-        <v>0.0001614467146311986</v>
+        <v>2.539110251901072E-07</v>
       </c>
       <c r="T31">
-        <v>0.0001614467146311986</v>
+        <v>2.539110251901071E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.00825</v>
+      </c>
+      <c r="H32">
+        <v>0.02475</v>
+      </c>
+      <c r="I32">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="J32">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.025588</v>
+      </c>
+      <c r="N32">
+        <v>45.076764</v>
+      </c>
+      <c r="O32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="P32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="Q32">
+        <v>0.123961101</v>
+      </c>
+      <c r="R32">
+        <v>1.115649909</v>
+      </c>
+      <c r="S32">
+        <v>0.0009495593003167667</v>
+      </c>
+      <c r="T32">
+        <v>0.0009495593003167667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.00825</v>
+      </c>
+      <c r="H33">
+        <v>0.02475</v>
+      </c>
+      <c r="I33">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="J33">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.52837</v>
+      </c>
+      <c r="O33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="P33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="Q33">
+        <v>0.0014530175</v>
+      </c>
+      <c r="R33">
+        <v>0.0130771575</v>
+      </c>
+      <c r="S33">
+        <v>1.113031644215565E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.113031644215565E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.00825</v>
+      </c>
+      <c r="H34">
+        <v>0.02475</v>
+      </c>
+      <c r="I34">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="J34">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02854133333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.08562400000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="P34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="Q34">
+        <v>0.000235466</v>
+      </c>
+      <c r="R34">
+        <v>0.002119194</v>
+      </c>
+      <c r="S34">
+        <v>1.803702358277601E-06</v>
+      </c>
+      <c r="T34">
+        <v>1.803702358277601E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.00825</v>
+      </c>
+      <c r="H35">
+        <v>0.02475</v>
+      </c>
+      <c r="I35">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="J35">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.345876333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.037629</v>
+      </c>
+      <c r="O35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="P35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="Q35">
+        <v>0.05235347975000001</v>
+      </c>
+      <c r="R35">
+        <v>0.4711813177500001</v>
+      </c>
+      <c r="S35">
+        <v>0.0004010349472497669</v>
+      </c>
+      <c r="T35">
+        <v>0.0004010349472497669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.00825</v>
+      </c>
+      <c r="H36">
+        <v>0.02475</v>
+      </c>
+      <c r="I36">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="J36">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1529056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.458717</v>
+      </c>
+      <c r="O36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="P36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="Q36">
+        <v>0.00126147175</v>
+      </c>
+      <c r="R36">
+        <v>0.01135324575</v>
+      </c>
+      <c r="S36">
+        <v>9.663049316570425E-06</v>
+      </c>
+      <c r="T36">
+        <v>9.663049316570425E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.00825</v>
+      </c>
+      <c r="H37">
+        <v>0.02475</v>
+      </c>
+      <c r="I37">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="J37">
+        <v>0.001378594839220472</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.256512</v>
+      </c>
+      <c r="O37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q37">
+        <v>0.0007054080000000001</v>
+      </c>
+      <c r="R37">
+        <v>0.006348672000000001</v>
+      </c>
+      <c r="S37">
+        <v>5.403523536934784E-06</v>
+      </c>
+      <c r="T37">
+        <v>5.403523536934783E-06</v>
       </c>
     </row>
   </sheetData>
